--- a/Souq/src/price/Souq/excel_23_vasos_e_potes.xlsx
+++ b/Souq/src/price/Souq/excel_23_vasos_e_potes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,117 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Vasos e Potes</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/vasos-e-potes.html</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/vasos-e-potes.html?p=1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>POTE DE DOLOMITA BLUE CHINA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/pote-de-dolomita-blue-china-01-01-04-223-004.html</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>188,00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>78,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Vasos e Potes</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/vasos-e-potes.html</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/vasos-e-potes.html?p=1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VASO CABBAGE</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/vaso-cabbage-01-01-19-317-006.html</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>299,00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>149,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Vasos e Potes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/vasos-e-potes.html</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/vasos-e-potes.html?p=1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VASO DE VIDRO SHAKI</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/vaso-de-vidro-shaki-01-01-19-309-022.html</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>179,00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>88,00</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
